--- a/DASHBOARD/assets/datas/paises_excel_27_5.xlsx
+++ b/DASHBOARD/assets/datas/paises_excel_27_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="153">
   <si>
     <t xml:space="preserve">ACTUAL </t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Nicolas Jackson</t>
-  </si>
-  <si>
-    <t>DT Aliou Cissé</t>
   </si>
   <si>
     <t>Aymen Dahmen</t>
@@ -483,7 +480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +491,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -530,13 +533,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -847,13 +850,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="24.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1897,7 +1900,7 @@
         <v>1442261797</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3">
         <f>CONCATENATE(G46,D46)</f>
       </c>
@@ -1920,7 +1923,7 @@
         <v>1442261873</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3">
         <f>CONCATENATE(G47,D47)</f>
       </c>
@@ -1943,7 +1946,7 @@
         <v>1442260621</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3">
         <f>CONCATENATE(G48,D48)</f>
       </c>
@@ -1966,7 +1969,7 @@
         <v>1442261894</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3">
         <f>CONCATENATE(G49,D49)</f>
       </c>
@@ -1989,7 +1992,7 @@
         <v>1442261921</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3">
         <f>CONCATENATE(G50,D50)</f>
       </c>
@@ -2012,7 +2015,7 @@
         <v>1442261832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3">
         <f>CONCATENATE(G51,D51)</f>
       </c>
@@ -2035,7 +2038,7 @@
         <v>1442261597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3">
         <f>CONCATENATE(G52,D52)</f>
       </c>
@@ -2058,7 +2061,7 @@
         <v>1442261639</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3">
         <f>CONCATENATE(G53,D53)</f>
       </c>
@@ -2081,7 +2084,7 @@
         <v>1442261313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3">
         <f>CONCATENATE(G54,D54)</f>
       </c>
@@ -2104,120 +2107,124 @@
         <v>1442262169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3">
-        <f>CONCATENATE(G55,D55)</f>
+        <f>concatenate(G55, D55)</f>
       </c>
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="3">
-        <f>CONCATENATE(B55,D55)</f>
+        <f>concatenate(B55, D55)</f>
       </c>
       <c r="F55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+        <v>70</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1442513531</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3">
-        <f>CONCATENATE(G56,D56)</f>
+        <f>concatenate(G56, D56)</f>
       </c>
       <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3">
+        <f>concatenate(B56, D56)</f>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="3">
-        <f>CONCATENATE(B56,D56)</f>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G56" s="4">
-        <v>1442513531</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+        <v>1442513745</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3">
-        <f>CONCATENATE(G57,D57)</f>
+        <f>concatenate(G57, D57)</f>
       </c>
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3">
+        <f>concatenate(B57, D57)</f>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="3">
-        <f>CONCATENATE(B57,D57)</f>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G57" s="4">
-        <v>1442513745</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+        <v>1442513465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3">
-        <f>CONCATENATE(G58,D58)</f>
+        <f>concatenate(G58, D58)</f>
       </c>
       <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3">
+        <f>concatenate(B58, D58)</f>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="3">
-        <f>CONCATENATE(B58,D58)</f>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G58" s="4">
-        <v>1442513465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+        <v>1442513690</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3">
-        <f>CONCATENATE(G59,D59)</f>
+        <f>concatenate(G59, D59)</f>
       </c>
       <c r="B59" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3">
+        <f>concatenate(B59, D59)</f>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="3">
-        <f>CONCATENATE(B59,D59)</f>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G59" s="4">
-        <v>1442513690</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+        <v>1442514989</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3">
-        <f>CONCATENATE(G60,D60)</f>
+        <f>concatenate(G60, D60)</f>
       </c>
       <c r="B60" s="1" t="s">
         <v>75</v>
@@ -2229,18 +2236,18 @@
         <v>9</v>
       </c>
       <c r="E60" s="3">
-        <f>CONCATENATE(B60,D60)</f>
+        <f>concatenate(B60, D60)</f>
       </c>
       <c r="F60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="4">
-        <v>1442514989</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+        <v>1442514045</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3">
-        <f>CONCATENATE(G61,D61)</f>
+        <f>concatenate(G61, D61)</f>
       </c>
       <c r="B61" s="1" t="s">
         <v>76</v>
@@ -2252,18 +2259,18 @@
         <v>9</v>
       </c>
       <c r="E61" s="3">
-        <f>CONCATENATE(B61,D61)</f>
+        <f>concatenate(B61, D61)</f>
       </c>
       <c r="F61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" s="4">
-        <v>1442514045</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+        <v>1442513910</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3">
-        <f>CONCATENATE(G62,D62)</f>
+        <f>concatenate(G62, D62)</f>
       </c>
       <c r="B62" s="1" t="s">
         <v>77</v>
@@ -2275,18 +2282,18 @@
         <v>9</v>
       </c>
       <c r="E62" s="3">
-        <f>CONCATENATE(B62,D62)</f>
+        <f>concatenate(B62, D62)</f>
       </c>
       <c r="F62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G62" s="4">
-        <v>1442513910</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+        <v>1442515148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3">
-        <f>CONCATENATE(G63,D63)</f>
+        <f>concatenate(G63, D63)</f>
       </c>
       <c r="B63" s="1" t="s">
         <v>78</v>
@@ -2298,18 +2305,18 @@
         <v>9</v>
       </c>
       <c r="E63" s="3">
-        <f>CONCATENATE(B63,D63)</f>
+        <f>concatenate(B63, D63)</f>
       </c>
       <c r="F63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63" s="4">
-        <v>1442515148</v>
+        <v>1442513827</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3">
-        <f>CONCATENATE(G64,D64)</f>
+        <f>concatenate(G64, D64)</f>
       </c>
       <c r="B64" s="1" t="s">
         <v>79</v>
@@ -2321,18 +2328,18 @@
         <v>9</v>
       </c>
       <c r="E64" s="3">
-        <f>CONCATENATE(B64,D64)</f>
+        <f>concatenate(B64, D64)</f>
       </c>
       <c r="F64" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64" s="4">
-        <v>1442513827</v>
+        <v>1442515239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3">
-        <f>CONCATENATE(G65,D65)</f>
+        <f>concatenate(G65, D65)</f>
       </c>
       <c r="B65" s="1" t="s">
         <v>80</v>
@@ -2344,18 +2351,18 @@
         <v>9</v>
       </c>
       <c r="E65" s="3">
-        <f>CONCATENATE(B65,D65)</f>
+        <f>concatenate(B65, D65)</f>
       </c>
       <c r="F65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" s="4">
-        <v>1442515239</v>
+        <v>1442513985</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3">
-        <f>CONCATENATE(G66,D66)</f>
+        <f>concatenate(G66, D66)</f>
       </c>
       <c r="B66" s="1" t="s">
         <v>81</v>
@@ -2367,18 +2374,18 @@
         <v>9</v>
       </c>
       <c r="E66" s="3">
-        <f>CONCATENATE(B66,D66)</f>
+        <f>concatenate(B66, D66)</f>
       </c>
       <c r="F66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G66" s="4">
-        <v>1442513985</v>
+        <v>1442514969</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3">
-        <f>CONCATENATE(G67,D67)</f>
+        <f>concatenate(G67, D67)</f>
       </c>
       <c r="B67" s="1" t="s">
         <v>82</v>
@@ -2390,41 +2397,41 @@
         <v>9</v>
       </c>
       <c r="E67" s="3">
-        <f>CONCATENATE(B67,D67)</f>
+        <f>concatenate(B67, D67)</f>
       </c>
       <c r="F67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="4">
-        <v>1442514969</v>
+        <v>1442514025</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3">
-        <f>CONCATENATE(G68,D68)</f>
+        <f>concatenate(G68, D68)</f>
       </c>
       <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="3">
-        <f>CONCATENATE(B68,D68)</f>
+        <f>concatenate(B68, D68)</f>
       </c>
       <c r="F68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G68" s="4">
-        <v>1442514025</v>
+        <v>1442513770</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3">
-        <f>CONCATENATE(G69,D69)</f>
+        <f>concatenate(G69, D69)</f>
       </c>
       <c r="B69" s="1" t="s">
         <v>84</v>
@@ -2436,18 +2443,18 @@
         <v>9</v>
       </c>
       <c r="E69" s="3">
-        <f>CONCATENATE(B69,D69)</f>
+        <f>concatenate(B69, D69)</f>
       </c>
       <c r="F69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G69" s="4">
-        <v>1442513770</v>
+        <v>1442514798</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3">
-        <f>CONCATENATE(G70,D70)</f>
+        <f>concatenate(G70, D70)</f>
       </c>
       <c r="B70" s="1" t="s">
         <v>85</v>
@@ -2459,18 +2466,18 @@
         <v>9</v>
       </c>
       <c r="E70" s="3">
-        <f>CONCATENATE(B70,D70)</f>
+        <f>concatenate(B70, D70)</f>
       </c>
       <c r="F70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="4">
-        <v>1442514798</v>
+        <v>1442515055</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3">
-        <f>CONCATENATE(G71,D71)</f>
+        <f>concatenate(G71, D71)</f>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
@@ -2482,18 +2489,18 @@
         <v>9</v>
       </c>
       <c r="E71" s="3">
-        <f>CONCATENATE(B71,D71)</f>
+        <f>concatenate(B71, D71)</f>
       </c>
       <c r="F71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71" s="4">
-        <v>1442515055</v>
+        <v>1442514225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3">
-        <f>CONCATENATE(G72,D72)</f>
+        <f>concatenate(G72, D72)</f>
       </c>
       <c r="B72" s="1" t="s">
         <v>87</v>
@@ -2505,18 +2512,18 @@
         <v>9</v>
       </c>
       <c r="E72" s="3">
-        <f>CONCATENATE(B72,D72)</f>
+        <f>concatenate(B72, D72)</f>
       </c>
       <c r="F72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G72" s="4">
-        <v>1442514225</v>
+        <v>1442514774</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3">
-        <f>CONCATENATE(G73,D73)</f>
+        <f>concatenate(G73, D73)</f>
       </c>
       <c r="B73" s="1" t="s">
         <v>88</v>
@@ -2528,41 +2535,41 @@
         <v>9</v>
       </c>
       <c r="E73" s="3">
-        <f>CONCATENATE(B73,D73)</f>
+        <f>concatenate(B73, D73)</f>
       </c>
       <c r="F73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" s="4">
-        <v>1442514774</v>
+        <v>1442513963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3">
-        <f>CONCATENATE(G74,D74)</f>
+        <f>concatenate(G74, D74)</f>
       </c>
       <c r="B74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="3">
-        <f>CONCATENATE(B74,D74)</f>
+        <f>concatenate(B74, D74)</f>
       </c>
       <c r="F74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G74" s="4">
-        <v>1442513963</v>
+        <v>1442514129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3">
-        <f>CONCATENATE(G75,D75)</f>
+        <f>concatenate(G75, D75)</f>
       </c>
       <c r="B75" s="1" t="s">
         <v>90</v>
@@ -2574,18 +2581,18 @@
         <v>9</v>
       </c>
       <c r="E75" s="3">
-        <f>CONCATENATE(B75,D75)</f>
+        <f>concatenate(B75, D75)</f>
       </c>
       <c r="F75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75" s="4">
-        <v>1442514129</v>
+        <v>1442515031</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3">
-        <f>CONCATENATE(G76,D76)</f>
+        <f>concatenate(G76, D76)</f>
       </c>
       <c r="B76" s="1" t="s">
         <v>91</v>
@@ -2597,18 +2604,18 @@
         <v>9</v>
       </c>
       <c r="E76" s="3">
-        <f>CONCATENATE(B76,D76)</f>
+        <f>concatenate(B76, D76)</f>
       </c>
       <c r="F76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G76" s="4">
-        <v>1442515031</v>
+        <v>1442514885</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3">
-        <f>CONCATENATE(G77,D77)</f>
+        <f>concatenate(G77, D77)</f>
       </c>
       <c r="B77" s="1" t="s">
         <v>92</v>
@@ -2620,18 +2627,18 @@
         <v>9</v>
       </c>
       <c r="E77" s="3">
-        <f>CONCATENATE(B77,D77)</f>
+        <f>concatenate(B77, D77)</f>
       </c>
       <c r="F77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" s="4">
-        <v>1442514885</v>
+        <v>1442514104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3">
-        <f>CONCATENATE(G78,D78)</f>
+        <f>concatenate(G78, D78)</f>
       </c>
       <c r="B78" s="1" t="s">
         <v>93</v>
@@ -2643,18 +2650,18 @@
         <v>9</v>
       </c>
       <c r="E78" s="3">
-        <f>CONCATENATE(B78,D78)</f>
+        <f>concatenate(B78, D78)</f>
       </c>
       <c r="F78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G78" s="4">
-        <v>1442514104</v>
+        <v>1442514856</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3">
-        <f>CONCATENATE(G79,D79)</f>
+        <f>concatenate(G79, D79)</f>
       </c>
       <c r="B79" s="1" t="s">
         <v>94</v>
@@ -2666,18 +2673,18 @@
         <v>9</v>
       </c>
       <c r="E79" s="3">
-        <f>CONCATENATE(B79,D79)</f>
+        <f>concatenate(B79, D79)</f>
       </c>
       <c r="F79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" s="4">
-        <v>1442514856</v>
+        <v>1442513861</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3">
-        <f>CONCATENATE(G80,D80)</f>
+        <f>concatenate(G80, D80)</f>
       </c>
       <c r="B80" s="1" t="s">
         <v>95</v>
@@ -2689,65 +2696,67 @@
         <v>9</v>
       </c>
       <c r="E80" s="3">
-        <f>CONCATENATE(B80,D80)</f>
+        <f>concatenate(B80, D80)</f>
       </c>
       <c r="F80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G80" s="4">
-        <v>1442513861</v>
+        <v>1442515172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3">
-        <f>CONCATENATE(G81,D81)</f>
+        <f>concatenate(G81, D81)</f>
       </c>
       <c r="B81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="3">
-        <f>CONCATENATE(B81,D81)</f>
+        <f>concatenate(B81, D81)</f>
       </c>
       <c r="F81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G81" s="4">
-        <v>1442515172</v>
+        <v>1442513366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3">
-        <f>CONCATENATE(G82,D82)</f>
+        <f>concatenate(G82, D82)</f>
       </c>
       <c r="B82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="3">
-        <f>CONCATENATE(B82,D82)</f>
+        <f>concatenate(B82, D82)</f>
       </c>
       <c r="F82" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G82" s="4">
-        <v>1442513366</v>
+        <v>1442844652</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3">
-        <f>CONCATENATE(G83,D83)</f>
+        <f>concatenate(G83, D83)</f>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
@@ -2756,18 +2765,18 @@
         <v>9</v>
       </c>
       <c r="E83" s="3">
-        <f>CONCATENATE(B83,D83)</f>
+        <f>concatenate(B83, D83)</f>
       </c>
       <c r="F83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" s="4">
-        <v>1442844652</v>
+        <v>1442844750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3">
-        <f>CONCATENATE(G84,D84)</f>
+        <f>concatenate(G84, D84)</f>
       </c>
       <c r="B84" s="1" t="s">
         <v>100</v>
@@ -2779,41 +2788,41 @@
         <v>9</v>
       </c>
       <c r="E84" s="3">
-        <f>CONCATENATE(B84,D84)</f>
+        <f>concatenate(B84, D84)</f>
       </c>
       <c r="F84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" s="4">
-        <v>1442844750</v>
+        <v>1442844606</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3">
-        <f>CONCATENATE(G85,D85)</f>
+        <f>concatenate(G85, D85)</f>
       </c>
       <c r="B85" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="3">
-        <f>CONCATENATE(B85,D85)</f>
+        <f>concatenate(B85, D85)</f>
       </c>
       <c r="F85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="4">
-        <v>1442844606</v>
+        <v>1442847523</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3">
-        <f>CONCATENATE(G86,D86)</f>
+        <f>concatenate(G86, D86)</f>
       </c>
       <c r="B86" s="1" t="s">
         <v>102</v>
@@ -2825,18 +2834,18 @@
         <v>9</v>
       </c>
       <c r="E86" s="3">
-        <f>CONCATENATE(B86,D86)</f>
+        <f>concatenate(B86, D86)</f>
       </c>
       <c r="F86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G86" s="4">
-        <v>1442847523</v>
+        <v>1442846218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3">
-        <f>CONCATENATE(G87,D87)</f>
+        <f>concatenate(G87, D87)</f>
       </c>
       <c r="B87" s="1" t="s">
         <v>103</v>
@@ -2848,18 +2857,18 @@
         <v>9</v>
       </c>
       <c r="E87" s="3">
-        <f>CONCATENATE(B87,D87)</f>
+        <f>concatenate(B87, D87)</f>
       </c>
       <c r="F87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G87" s="4">
-        <v>1442846218</v>
+        <v>1442846604</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3">
-        <f>CONCATENATE(G88,D88)</f>
+        <f>concatenate(G88, D88)</f>
       </c>
       <c r="B88" s="1" t="s">
         <v>104</v>
@@ -2871,18 +2880,18 @@
         <v>9</v>
       </c>
       <c r="E88" s="3">
-        <f>CONCATENATE(B88,D88)</f>
+        <f>concatenate(B88, D88)</f>
       </c>
       <c r="F88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G88" s="4">
-        <v>1442846604</v>
+        <v>1442846719</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3">
-        <f>CONCATENATE(G89,D89)</f>
+        <f>concatenate(G89, D89)</f>
       </c>
       <c r="B89" s="1" t="s">
         <v>105</v>
@@ -2894,18 +2903,18 @@
         <v>9</v>
       </c>
       <c r="E89" s="3">
-        <f>CONCATENATE(B89,D89)</f>
+        <f>concatenate(B89, D89)</f>
       </c>
       <c r="F89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G89" s="4">
-        <v>1442846719</v>
+        <v>1442846594</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3">
-        <f>CONCATENATE(G90,D90)</f>
+        <f>concatenate(G90, D90)</f>
       </c>
       <c r="B90" s="1" t="s">
         <v>106</v>
@@ -2917,18 +2926,18 @@
         <v>9</v>
       </c>
       <c r="E90" s="3">
-        <f>CONCATENATE(B90,D90)</f>
+        <f>concatenate(B90, D90)</f>
       </c>
       <c r="F90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="4">
-        <v>1442846594</v>
+        <v>1442844930</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3">
-        <f>CONCATENATE(G91,D91)</f>
+        <f>concatenate(G91, D91)</f>
       </c>
       <c r="B91" s="1" t="s">
         <v>107</v>
@@ -2940,41 +2949,41 @@
         <v>9</v>
       </c>
       <c r="E91" s="3">
-        <f>CONCATENATE(B91,D91)</f>
+        <f>concatenate(B91, D91)</f>
       </c>
       <c r="F91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="4">
-        <v>1442844930</v>
+        <v>1442844963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3">
-        <f>CONCATENATE(G92,D92)</f>
+        <f>concatenate(G92, D92)</f>
       </c>
       <c r="B92" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="3">
-        <f>CONCATENATE(B92,D92)</f>
+        <f>concatenate(B92, D92)</f>
       </c>
       <c r="F92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G92" s="4">
-        <v>1442844963</v>
+        <v>1442845354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3">
-        <f>CONCATENATE(G93,D93)</f>
+        <f>concatenate(G93, D93)</f>
       </c>
       <c r="B93" s="1" t="s">
         <v>109</v>
@@ -2986,18 +2995,18 @@
         <v>9</v>
       </c>
       <c r="E93" s="3">
-        <f>CONCATENATE(B93,D93)</f>
+        <f>concatenate(B93, D93)</f>
       </c>
       <c r="F93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" s="4">
-        <v>1442845354</v>
+        <v>1442846452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3">
-        <f>CONCATENATE(G94,D94)</f>
+        <f>concatenate(G94, D94)</f>
       </c>
       <c r="B94" s="1" t="s">
         <v>110</v>
@@ -3009,18 +3018,18 @@
         <v>9</v>
       </c>
       <c r="E94" s="3">
-        <f>CONCATENATE(B94,D94)</f>
+        <f>concatenate(B94, D94)</f>
       </c>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G94" s="4">
-        <v>1442846452</v>
+        <v>1442845181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3">
-        <f>CONCATENATE(G95,D95)</f>
+        <f>concatenate(G95, D95)</f>
       </c>
       <c r="B95" s="1" t="s">
         <v>111</v>
@@ -3032,18 +3041,18 @@
         <v>9</v>
       </c>
       <c r="E95" s="3">
-        <f>CONCATENATE(B95,D95)</f>
+        <f>concatenate(B95, D95)</f>
       </c>
       <c r="F95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G95" s="4">
-        <v>1442845181</v>
+        <v>1442847605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3">
-        <f>CONCATENATE(G96,D96)</f>
+        <f>concatenate(G96, D96)</f>
       </c>
       <c r="B96" s="1" t="s">
         <v>112</v>
@@ -3055,18 +3064,18 @@
         <v>9</v>
       </c>
       <c r="E96" s="3">
-        <f>CONCATENATE(B96,D96)</f>
+        <f>concatenate(B96, D96)</f>
       </c>
       <c r="F96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G96" s="4">
-        <v>1442847605</v>
+        <v>1442846685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3">
-        <f>CONCATENATE(G97,D97)</f>
+        <f>concatenate(G97, D97)</f>
       </c>
       <c r="B97" s="1" t="s">
         <v>113</v>
@@ -3078,18 +3087,18 @@
         <v>9</v>
       </c>
       <c r="E97" s="3">
-        <f>CONCATENATE(B97,D97)</f>
+        <f>concatenate(B97, D97)</f>
       </c>
       <c r="F97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G97" s="4">
-        <v>1442846685</v>
+        <v>1442845134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3">
-        <f>CONCATENATE(G98,D98)</f>
+        <f>concatenate(G98, D98)</f>
       </c>
       <c r="B98" s="1" t="s">
         <v>114</v>
@@ -3101,18 +3110,18 @@
         <v>9</v>
       </c>
       <c r="E98" s="3">
-        <f>CONCATENATE(B98,D98)</f>
+        <f>concatenate(B98, D98)</f>
       </c>
       <c r="F98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G98" s="4">
-        <v>1442845134</v>
+        <v>1442846614</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3">
-        <f>CONCATENATE(G99,D99)</f>
+        <f>concatenate(G99, D99)</f>
       </c>
       <c r="B99" s="1" t="s">
         <v>115</v>
@@ -3124,41 +3133,41 @@
         <v>9</v>
       </c>
       <c r="E99" s="3">
-        <f>CONCATENATE(B99,D99)</f>
+        <f>concatenate(B99, D99)</f>
       </c>
       <c r="F99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G99" s="4">
-        <v>1442846614</v>
+        <v>1442846752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3">
-        <f>CONCATENATE(G100,D100)</f>
+        <f>concatenate(G100, D100)</f>
       </c>
       <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="3">
-        <f>CONCATENATE(B100,D100)</f>
+        <f>concatenate(B100, D100)</f>
       </c>
       <c r="F100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G100" s="4">
-        <v>1442846752</v>
+        <v>1442846654</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3">
-        <f>CONCATENATE(G101,D101)</f>
+        <f>concatenate(G101, D101)</f>
       </c>
       <c r="B101" s="1" t="s">
         <v>117</v>
@@ -3170,18 +3179,18 @@
         <v>9</v>
       </c>
       <c r="E101" s="3">
-        <f>CONCATENATE(B101,D101)</f>
+        <f>concatenate(B101, D101)</f>
       </c>
       <c r="F101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G101" s="4">
-        <v>1442846654</v>
+        <v>1442846585</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="3">
-        <f>CONCATENATE(G102,D102)</f>
+        <f>concatenate(G102, D102)</f>
       </c>
       <c r="B102" s="1" t="s">
         <v>118</v>
@@ -3193,18 +3202,18 @@
         <v>9</v>
       </c>
       <c r="E102" s="3">
-        <f>CONCATENATE(B102,D102)</f>
+        <f>concatenate(B102, D102)</f>
       </c>
       <c r="F102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G102" s="4">
-        <v>1442846585</v>
+        <v>1442845483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3">
-        <f>CONCATENATE(G103,D103)</f>
+        <f>concatenate(G103, D103)</f>
       </c>
       <c r="B103" s="1" t="s">
         <v>119</v>
@@ -3216,18 +3225,18 @@
         <v>9</v>
       </c>
       <c r="E103" s="3">
-        <f>CONCATENATE(B103,D103)</f>
+        <f>concatenate(B103, D103)</f>
       </c>
       <c r="F103" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G103" s="4">
-        <v>1442845483</v>
+        <v>1442846559</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3">
-        <f>CONCATENATE(G104,D104)</f>
+        <f>concatenate(G104, D104)</f>
       </c>
       <c r="B104" s="1" t="s">
         <v>120</v>
@@ -3239,18 +3248,18 @@
         <v>9</v>
       </c>
       <c r="E104" s="3">
-        <f>CONCATENATE(B104,D104)</f>
+        <f>concatenate(B104, D104)</f>
       </c>
       <c r="F104" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G104" s="4">
-        <v>1442846559</v>
+        <v>1442844823</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3">
-        <f>CONCATENATE(G105,D105)</f>
+        <f>concatenate(G105, D105)</f>
       </c>
       <c r="B105" s="1" t="s">
         <v>121</v>
@@ -3262,18 +3271,18 @@
         <v>9</v>
       </c>
       <c r="E105" s="3">
-        <f>CONCATENATE(B105,D105)</f>
+        <f>concatenate(B105, D105)</f>
       </c>
       <c r="F105" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G105" s="4">
-        <v>1442844823</v>
+        <v>1442845035</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3">
-        <f>CONCATENATE(G106,D106)</f>
+        <f>concatenate(G106, D106)</f>
       </c>
       <c r="B106" s="1" t="s">
         <v>122</v>
@@ -3285,18 +3294,18 @@
         <v>9</v>
       </c>
       <c r="E106" s="3">
-        <f>CONCATENATE(B106,D106)</f>
+        <f>concatenate(B106, D106)</f>
       </c>
       <c r="F106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G106" s="4">
-        <v>1442845035</v>
+        <v>1442847715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3">
-        <f>CONCATENATE(G107,D107)</f>
+        <f>concatenate(G107, D107)</f>
       </c>
       <c r="B107" s="1" t="s">
         <v>123</v>
@@ -3308,65 +3317,65 @@
         <v>9</v>
       </c>
       <c r="E107" s="3">
-        <f>CONCATENATE(B107,D107)</f>
+        <f>concatenate(B107, D107)</f>
       </c>
       <c r="F107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G107" s="4">
-        <v>1442847715</v>
+        <v>1442846791</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="3">
-        <f>CONCATENATE(G108,D108)</f>
+        <f>concatenate(G108, D108)</f>
       </c>
       <c r="B108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="3">
-        <f>CONCATENATE(B108,D108)</f>
+        <f>concatenate(B108, D108)</f>
       </c>
       <c r="F108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G108" s="4">
-        <v>1442846791</v>
+        <v>1442844030</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="3">
-        <f>CONCATENATE(G109,D109)</f>
+        <f>concatenate(G109, D109)</f>
       </c>
       <c r="B109" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="3">
-        <f>CONCATENATE(B109,D109)</f>
+        <f>concatenate(B109, D109)</f>
       </c>
       <c r="F109" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="G109" s="4">
-        <v>1442844030</v>
+        <v>1441720667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="3">
-        <f>CONCATENATE(G110,D110)</f>
+        <f>concatenate(G110, D110)</f>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
@@ -3375,18 +3384,18 @@
         <v>9</v>
       </c>
       <c r="E110" s="3">
-        <f>CONCATENATE(B110,D110)</f>
+        <f>concatenate(B110, D110)</f>
       </c>
       <c r="F110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G110" s="4">
-        <v>1441720667</v>
+        <v>1441720740</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="3">
-        <f>CONCATENATE(G111,D111)</f>
+        <f>concatenate(G111, D111)</f>
       </c>
       <c r="B111" s="1" t="s">
         <v>128</v>
@@ -3398,41 +3407,41 @@
         <v>9</v>
       </c>
       <c r="E111" s="3">
-        <f>CONCATENATE(B111,D111)</f>
+        <f>concatenate(B111, D111)</f>
       </c>
       <c r="F111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G111" s="4">
-        <v>1441720740</v>
+        <v>1441720646</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="3">
-        <f>CONCATENATE(G112,D112)</f>
+        <f>concatenate(G112, D112)</f>
       </c>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="3">
-        <f>CONCATENATE(B112,D112)</f>
+        <f>concatenate(B112, D112)</f>
       </c>
       <c r="F112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G112" s="4">
-        <v>1441720646</v>
+        <v>1441722845</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="3">
-        <f>CONCATENATE(G113,D113)</f>
+        <f>concatenate(G113, D113)</f>
       </c>
       <c r="B113" s="1" t="s">
         <v>130</v>
@@ -3444,18 +3453,18 @@
         <v>9</v>
       </c>
       <c r="E113" s="3">
-        <f>CONCATENATE(B113,D113)</f>
+        <f>concatenate(B113, D113)</f>
       </c>
       <c r="F113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G113" s="4">
-        <v>1441722845</v>
+        <v>1441732428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="3">
-        <f>CONCATENATE(G114,D114)</f>
+        <f>concatenate(G114, D114)</f>
       </c>
       <c r="B114" s="1" t="s">
         <v>131</v>
@@ -3467,18 +3476,18 @@
         <v>9</v>
       </c>
       <c r="E114" s="3">
-        <f>CONCATENATE(B114,D114)</f>
+        <f>concatenate(B114, D114)</f>
       </c>
       <c r="F114" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G114" s="4">
-        <v>1441732428</v>
+        <v>1441721745</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="3">
-        <f>CONCATENATE(G115,D115)</f>
+        <f>concatenate(G115, D115)</f>
       </c>
       <c r="B115" s="1" t="s">
         <v>132</v>
@@ -3490,18 +3499,18 @@
         <v>9</v>
       </c>
       <c r="E115" s="3">
-        <f>CONCATENATE(B115,D115)</f>
+        <f>concatenate(B115, D115)</f>
       </c>
       <c r="F115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G115" s="4">
-        <v>1441721745</v>
+        <v>1441722964</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="3">
-        <f>CONCATENATE(G116,D116)</f>
+        <f>concatenate(G116, D116)</f>
       </c>
       <c r="B116" s="1" t="s">
         <v>133</v>
@@ -3513,18 +3522,18 @@
         <v>9</v>
       </c>
       <c r="E116" s="3">
-        <f>CONCATENATE(B116,D116)</f>
+        <f>concatenate(B116, D116)</f>
       </c>
       <c r="F116" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" s="4">
-        <v>1441722964</v>
+        <v>1441722139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="3">
-        <f>CONCATENATE(G117,D117)</f>
+        <f>concatenate(G117, D117)</f>
       </c>
       <c r="B117" s="1" t="s">
         <v>134</v>
@@ -3536,18 +3545,18 @@
         <v>9</v>
       </c>
       <c r="E117" s="3">
-        <f>CONCATENATE(B117,D117)</f>
+        <f>concatenate(B117, D117)</f>
       </c>
       <c r="F117" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G117" s="4">
-        <v>1441722139</v>
+        <v>1441732497</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="3">
-        <f>CONCATENATE(G118,D118)</f>
+        <f>concatenate(G118, D118)</f>
       </c>
       <c r="B118" s="1" t="s">
         <v>135</v>
@@ -3559,18 +3568,18 @@
         <v>9</v>
       </c>
       <c r="E118" s="3">
-        <f>CONCATENATE(B118,D118)</f>
+        <f>concatenate(B118, D118)</f>
       </c>
       <c r="F118" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G118" s="4">
-        <v>1441732497</v>
+        <v>1441723462</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="3">
-        <f>CONCATENATE(G119,D119)</f>
+        <f>concatenate(G119, D119)</f>
       </c>
       <c r="B119" s="1" t="s">
         <v>136</v>
@@ -3582,18 +3591,18 @@
         <v>9</v>
       </c>
       <c r="E119" s="3">
-        <f>CONCATENATE(B119,D119)</f>
+        <f>concatenate(B119, D119)</f>
       </c>
       <c r="F119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G119" s="4">
-        <v>1441723462</v>
+        <v>1441723406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="3">
-        <f>CONCATENATE(G120,D120)</f>
+        <f>concatenate(G120, D120)</f>
       </c>
       <c r="B120" s="1" t="s">
         <v>137</v>
@@ -3605,41 +3614,41 @@
         <v>9</v>
       </c>
       <c r="E120" s="3">
-        <f>CONCATENATE(B120,D120)</f>
+        <f>concatenate(B120, D120)</f>
       </c>
       <c r="F120" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G120" s="4">
-        <v>1441723406</v>
+        <v>1441723317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="3">
-        <f>CONCATENATE(G121,D121)</f>
+        <f>concatenate(G121, D121)</f>
       </c>
       <c r="B121" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="3">
-        <f>CONCATENATE(B121,D121)</f>
+        <f>concatenate(B121, D121)</f>
       </c>
       <c r="F121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G121" s="4">
-        <v>1441723317</v>
+        <v>1441723033</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="3">
-        <f>CONCATENATE(G122,D122)</f>
+        <f>concatenate(G122, D122)</f>
       </c>
       <c r="B122" s="1" t="s">
         <v>139</v>
@@ -3651,18 +3660,18 @@
         <v>9</v>
       </c>
       <c r="E122" s="3">
-        <f>CONCATENATE(B122,D122)</f>
+        <f>concatenate(B122, D122)</f>
       </c>
       <c r="F122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G122" s="4">
-        <v>1441723033</v>
+        <v>1441721412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="3">
-        <f>CONCATENATE(G123,D123)</f>
+        <f>concatenate(G123, D123)</f>
       </c>
       <c r="B123" s="1" t="s">
         <v>140</v>
@@ -3674,18 +3683,18 @@
         <v>9</v>
       </c>
       <c r="E123" s="3">
-        <f>CONCATENATE(B123,D123)</f>
+        <f>concatenate(B123, D123)</f>
       </c>
       <c r="F123" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G123" s="4">
-        <v>1441721412</v>
+        <v>1441722078</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="3">
-        <f>CONCATENATE(G124,D124)</f>
+        <f>concatenate(G124, D124)</f>
       </c>
       <c r="B124" s="1" t="s">
         <v>141</v>
@@ -3697,18 +3706,18 @@
         <v>9</v>
       </c>
       <c r="E124" s="3">
-        <f>CONCATENATE(B124,D124)</f>
+        <f>concatenate(B124, D124)</f>
       </c>
       <c r="F124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G124" s="4">
-        <v>1441722078</v>
+        <v>1441723161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="3">
-        <f>CONCATENATE(G125,D125)</f>
+        <f>concatenate(G125, D125)</f>
       </c>
       <c r="B125" s="1" t="s">
         <v>142</v>
@@ -3720,18 +3729,18 @@
         <v>9</v>
       </c>
       <c r="E125" s="3">
-        <f>CONCATENATE(B125,D125)</f>
+        <f>concatenate(B125, D125)</f>
       </c>
       <c r="F125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="4">
-        <v>1441723161</v>
+        <v>1441722790</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="3">
-        <f>CONCATENATE(G126,D126)</f>
+        <f>concatenate(G126, D126)</f>
       </c>
       <c r="B126" s="1" t="s">
         <v>143</v>
@@ -3743,18 +3752,18 @@
         <v>9</v>
       </c>
       <c r="E126" s="3">
-        <f>CONCATENATE(B126,D126)</f>
+        <f>concatenate(B126, D126)</f>
       </c>
       <c r="F126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G126" s="4">
-        <v>1441722790</v>
+        <v>1441721484</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="3">
-        <f>CONCATENATE(G127,D127)</f>
+        <f>concatenate(G127, D127)</f>
       </c>
       <c r="B127" s="1" t="s">
         <v>144</v>
@@ -3766,41 +3775,41 @@
         <v>9</v>
       </c>
       <c r="E127" s="3">
-        <f>CONCATENATE(B127,D127)</f>
+        <f>concatenate(B127, D127)</f>
       </c>
       <c r="F127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" s="4">
-        <v>1441721484</v>
+        <v>1441723283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="3">
-        <f>CONCATENATE(G128,D128)</f>
+        <f>concatenate(G128, D128)</f>
       </c>
       <c r="B128" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="3">
-        <f>CONCATENATE(B128,D128)</f>
+        <f>concatenate(B128, D128)</f>
       </c>
       <c r="F128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G128" s="4">
-        <v>1441723283</v>
+        <v>1441723343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="3">
-        <f>CONCATENATE(G129,D129)</f>
+        <f>concatenate(G129, D129)</f>
       </c>
       <c r="B129" s="1" t="s">
         <v>146</v>
@@ -3812,18 +3821,18 @@
         <v>9</v>
       </c>
       <c r="E129" s="3">
-        <f>CONCATENATE(B129,D129)</f>
+        <f>concatenate(B129, D129)</f>
       </c>
       <c r="F129" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G129" s="4">
-        <v>1441723343</v>
+        <v>1441722238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="3">
-        <f>CONCATENATE(G130,D130)</f>
+        <f>concatenate(G130, D130)</f>
       </c>
       <c r="B130" s="1" t="s">
         <v>147</v>
@@ -3835,18 +3844,18 @@
         <v>9</v>
       </c>
       <c r="E130" s="3">
-        <f>CONCATENATE(B130,D130)</f>
+        <f>concatenate(B130, D130)</f>
       </c>
       <c r="F130" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G130" s="4">
-        <v>1441722238</v>
+        <v>1441721640</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="3">
-        <f>CONCATENATE(G131,D131)</f>
+        <f>concatenate(G131, D131)</f>
       </c>
       <c r="B131" s="1" t="s">
         <v>148</v>
@@ -3858,18 +3867,18 @@
         <v>9</v>
       </c>
       <c r="E131" s="3">
-        <f>CONCATENATE(B131,D131)</f>
+        <f>concatenate(B131, D131)</f>
       </c>
       <c r="F131" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G131" s="4">
-        <v>1441721640</v>
+        <v>1441723620</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="3">
-        <f>CONCATENATE(G132,D132)</f>
+        <f>concatenate(G132, D132)</f>
       </c>
       <c r="B132" s="1" t="s">
         <v>149</v>
@@ -3881,18 +3890,18 @@
         <v>9</v>
       </c>
       <c r="E132" s="3">
-        <f>CONCATENATE(B132,D132)</f>
+        <f>concatenate(B132, D132)</f>
       </c>
       <c r="F132" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" s="4">
-        <v>1441723620</v>
+        <v>1441732346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="3">
-        <f>CONCATENATE(G133,D133)</f>
+        <f>concatenate(G133, D133)</f>
       </c>
       <c r="B133" s="1" t="s">
         <v>150</v>
@@ -3904,18 +3913,18 @@
         <v>9</v>
       </c>
       <c r="E133" s="3">
-        <f>CONCATENATE(B133,D133)</f>
+        <f>concatenate(B133, D133)</f>
       </c>
       <c r="F133" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G133" s="4">
-        <v>1441732346</v>
+        <v>1441723369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="3">
-        <f>CONCATENATE(G134,D134)</f>
+        <f>concatenate(G134, D134)</f>
       </c>
       <c r="B134" s="1" t="s">
         <v>151</v>
@@ -3927,58 +3936,35 @@
         <v>9</v>
       </c>
       <c r="E134" s="3">
-        <f>CONCATENATE(B134,D134)</f>
+        <f>concatenate(B134, D134)</f>
       </c>
       <c r="F134" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G134" s="4">
-        <v>1441723369</v>
+        <v>1441723126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="3">
-        <f>CONCATENATE(G135,D135)</f>
+        <f>concatenate(G135, D135)</f>
       </c>
       <c r="B135" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="3">
-        <f>CONCATENATE(B135,D135)</f>
+        <f>concatenate(B135, D135)</f>
       </c>
       <c r="F135" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" s="4">
-        <v>1441723126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="3">
-        <f>CONCATENATE(G136,D136)</f>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="3">
-        <f>CONCATENATE(B136,D136)</f>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G136" s="4">
         <v>1441720508</v>
       </c>
     </row>
